--- a/werkverdeling/Projectplanner.xlsx
+++ b/werkverdeling/Projectplanner.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
   <si>
     <t>Projectweek 1</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Projectweek 6</t>
-  </si>
-  <si>
-    <t>Projectweek 7</t>
   </si>
   <si>
     <t>Projectweek 8</t>
@@ -357,6 +354,18 @@
   </si>
   <si>
     <t>updaten design indien nog nodig (shadow effects?)</t>
+  </si>
+  <si>
+    <t>Projectweek 7 (31-10)</t>
+  </si>
+  <si>
+    <t>php overzetten naar nieuwe site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total redesign site </t>
+  </si>
+  <si>
+    <t>Voor alles na periode 2 is een nieuwe planning gemaakt (V2)</t>
   </si>
 </sst>
 </file>
@@ -690,7 +699,7 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -739,11 +748,12 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="8" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Bad" xfId="9" builtinId="27"/>
@@ -1094,7 +1104,7 @@
   <dimension ref="A1:AT984"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1113,7 +1123,7 @@
   <sheetData>
     <row r="1" spans="1:46" ht="30.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1151,24 +1161,24 @@
     </row>
     <row r="2" spans="1:46" ht="18.75" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>14</v>
+      <c r="B2" s="42" t="s">
+        <v>13</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="27">
         <v>42632</v>
       </c>
-      <c r="H2" s="40" t="s">
-        <v>8</v>
+      <c r="H2" s="41" t="s">
+        <v>7</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
       <c r="O2" s="8"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -1194,18 +1204,18 @@
     </row>
     <row r="3" spans="1:46">
       <c r="A3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>13</v>
+      <c r="B3" s="42" t="s">
+        <v>12</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
       <c r="O3" s="8"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
@@ -1231,14 +1241,14 @@
     </row>
     <row r="4" spans="1:46" ht="18.75" customHeight="1">
       <c r="A4" s="24"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
       <c r="O4" s="8"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
@@ -1264,14 +1274,16 @@
     </row>
     <row r="5" spans="1:46" ht="18" customHeight="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
@@ -1368,7 +1380,7 @@
         <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
@@ -1398,29 +1410,29 @@
         <v>René Steeman</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="2"/>
       <c r="H8" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="29"/>
@@ -1449,12 +1461,12 @@
     <row r="9" spans="1:46" ht="16.5" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="2"/>
       <c r="E9" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1488,7 +1500,7 @@
     <row r="10" spans="1:46" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="2"/>
@@ -1526,7 +1538,7 @@
     <row r="11" spans="1:46" ht="18" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1567,22 +1579,22 @@
         <v>Lars Quaedvlieg</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="7"/>
@@ -1611,12 +1623,12 @@
     <row r="13" spans="1:46" ht="13.5" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1733,7 +1745,7 @@
         <f>WEEKNUM(C16)</f>
         <v>43</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="19">
@@ -1744,8 +1756,8 @@
         <f>WEEKNUM(F16)</f>
         <v>44</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>6</v>
+      <c r="H16" s="33" t="s">
+        <v>108</v>
       </c>
       <c r="I16" s="19">
         <f>F16+7</f>
@@ -1756,7 +1768,7 @@
         <v>45</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L16" s="19">
         <f>I16+7</f>
@@ -1767,7 +1779,7 @@
         <v>46</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -1808,31 +1820,30 @@
         <v>René Steeman</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="6" t="s">
-        <v>17</v>
+      <c r="E17" s="34" t="s">
+        <v>16</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L17" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -1867,20 +1878,23 @@
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
     </row>
-    <row r="18" spans="1:46" ht="12.75">
+    <row r="18" spans="1:46" ht="15">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
+      <c r="E18" s="43" t="s">
+        <v>110</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="6" t="s">
-        <v>106</v>
+      <c r="H18" s="35" t="s">
+        <v>105</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="7"/>
@@ -2019,22 +2033,22 @@
         <v>Lars Quaedvlieg</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="6" t="s">
-        <v>17</v>
+      <c r="E21" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="6" t="s">
-        <v>18</v>
+      <c r="H21" s="35" t="s">
+        <v>17</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="7"/>
@@ -2081,7 +2095,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2130,7 +2144,9 @@
       <c r="E23" s="10"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="10"/>
@@ -2269,7 +2285,7 @@
     <row r="26" spans="1:46" ht="23.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="19">
         <f>F21</f>
@@ -2280,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" s="19">
         <f>C26+7</f>
@@ -2291,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="18">
@@ -2299,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L26" s="19"/>
       <c r="M26" s="18">
@@ -2307,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -2348,31 +2364,31 @@
         <v>René Steeman</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="2"/>
@@ -2559,22 +2575,22 @@
         <v>Lars Quaedvlieg</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="7"/>
@@ -2759,7 +2775,7 @@
     <row r="35" spans="1:46" ht="23.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="19">
         <f>L26+7</f>
@@ -2770,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35" s="19">
         <f>C35+7</f>
@@ -2781,7 +2797,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I35" s="19">
         <f>F35+7</f>
@@ -2792,7 +2808,7 @@
         <v>3</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L35" s="19">
         <f>I35+7</f>
@@ -2803,7 +2819,7 @@
         <v>4</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -2844,22 +2860,22 @@
         <v>René Steeman</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
       <c r="H36" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="7"/>
@@ -3047,22 +3063,22 @@
         <v>Lars Quaedvlieg</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="7"/>
@@ -3295,7 +3311,7 @@
     <row r="45" spans="1:46" ht="23.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="19">
         <f>F40</f>
@@ -3306,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F45" s="19">
         <f>C45+7</f>
@@ -3317,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I45" s="19">
         <f>F45+7</f>
@@ -3328,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L45" s="19">
         <f>I45+7</f>
@@ -3339,7 +3355,7 @@
         <v>3</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -3380,31 +3396,31 @@
         <v>René Steeman</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -3451,12 +3467,12 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="7"/>
       <c r="N47" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -3593,22 +3609,22 @@
         <v>Lars Quaedvlieg</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="7"/>
@@ -3793,7 +3809,7 @@
     <row r="54" spans="1:46" ht="23.25">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="19">
         <f>L45+7</f>
@@ -3804,7 +3820,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F54" s="19">
         <f>C54+7</f>
@@ -3815,7 +3831,7 @@
         <v>5</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I54" s="19">
         <f>F54+7</f>
@@ -3826,7 +3842,7 @@
         <v>6</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L54" s="19">
         <f>I54+7</f>
@@ -3837,7 +3853,7 @@
         <v>7</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -3878,22 +3894,22 @@
         <v>René Steeman</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="7"/>
@@ -4081,22 +4097,22 @@
         <v>Lars Quaedvlieg</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="7"/>
@@ -4329,7 +4345,7 @@
     <row r="64" spans="1:46" ht="23.25">
       <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="19">
         <f>F59</f>
@@ -4340,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F64" s="19">
         <f>C64+7</f>
@@ -4351,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I64" s="19">
         <f>F64+7</f>
@@ -4362,7 +4378,7 @@
         <v>2</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L64" s="19">
         <f>I64+7</f>
@@ -4373,7 +4389,7 @@
         <v>3</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -4414,22 +4430,22 @@
         <v>René Steeman</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="7"/>
@@ -4614,22 +4630,22 @@
         <v>Lars Quaedvlieg</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="7"/>
@@ -4814,7 +4830,7 @@
     <row r="73" spans="1:46" ht="23.25">
       <c r="A73" s="3"/>
       <c r="B73" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" s="19">
         <f>L64+7</f>
@@ -4825,7 +4841,7 @@
         <v>4</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F73" s="19">
         <f>C73+7</f>
@@ -4836,7 +4852,7 @@
         <v>5</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I73" s="19">
         <f>F73+7</f>
@@ -4847,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L73" s="19">
         <f>I73+7</f>
@@ -4897,22 +4913,22 @@
         <v>René Steeman</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="7"/>
@@ -5099,22 +5115,22 @@
         <v>Lars Quaedvlieg</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="7"/>
@@ -48673,18 +48689,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -48836,6 +48852,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B349427B-C971-4C2D-BCB4-60E110B41CA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531C4CE0-C956-45B5-891D-839E647CFA9A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -48847,14 +48871,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B349427B-C971-4C2D-BCB4-60E110B41CA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
